--- a/vertx-env/exec-toolkit/configuration/modulat/zero-battery/10000_1100_ZERO-D.STD_3.xlsx
+++ b/vertx-env/exec-toolkit/configuration/modulat/zero-battery/10000_1100_ZERO-D.STD_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-battery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62573825-F651-D742-A178-A7AABFE352D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A7C184-7AEF-1A4A-A22D-9933775C4B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -446,6 +446,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -456,9 +459,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -778,7 +778,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -811,15 +811,15 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
@@ -913,17 +913,17 @@
       <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
@@ -1021,7 +1021,7 @@
       <c r="I12" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="13" t="s">
         <v>52</v>
       </c>
       <c r="K12" s="8" t="s">
@@ -1054,7 +1054,7 @@
       <c r="I13" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="13" t="s">
         <v>52</v>
       </c>
       <c r="K13" s="8" t="s">
@@ -1087,7 +1087,7 @@
       <c r="I14" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="13" t="s">
         <v>52</v>
       </c>
       <c r="K14" s="8" t="s">
